--- a/Validation/validation_output/example_generated_platemap_manual_changes.xlsx
+++ b/Validation/validation_output/example_generated_platemap_manual_changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Dropbox (Cambridge University)\NormaliseForIC50\Validation\validation_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97971512-9757-4CB7-AF21-9589FBE9F9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F71C0C-1C9A-462A-83B5-37A75F75DC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4590" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="100">
   <si>
     <t>Plate_Name</t>
   </si>
@@ -300,6 +300,39 @@
   </si>
   <si>
     <t>inhibition</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -321,6 +354,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -709,11 +743,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +756,7 @@
     <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -762,8 +796,11 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -800,8 +837,11 @@
       <c r="M2" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -838,8 +878,11 @@
       <c r="M3" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -876,8 +919,11 @@
       <c r="M4" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -914,8 +960,11 @@
       <c r="M5" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -952,8 +1001,11 @@
       <c r="M6" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -990,8 +1042,11 @@
       <c r="M7" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -1028,8 +1083,11 @@
       <c r="M8" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -1066,8 +1124,11 @@
       <c r="M9" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1104,8 +1165,11 @@
       <c r="M10" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1142,8 +1206,11 @@
       <c r="M11" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -1180,8 +1247,11 @@
       <c r="M12" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -1218,8 +1288,11 @@
       <c r="M13" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -1256,8 +1329,11 @@
       <c r="M14" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -1294,8 +1370,11 @@
       <c r="M15" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -1332,8 +1411,11 @@
       <c r="M16" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -1370,8 +1452,11 @@
       <c r="M17" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -1408,8 +1493,11 @@
       <c r="M18" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -1446,8 +1534,11 @@
       <c r="M19" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -1484,8 +1575,11 @@
       <c r="M20" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -1522,8 +1616,11 @@
       <c r="M21" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -1560,8 +1657,11 @@
       <c r="M22" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -1598,8 +1698,11 @@
       <c r="M23" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -1636,8 +1739,11 @@
       <c r="M24" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -1674,8 +1780,11 @@
       <c r="M25" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -1712,8 +1821,11 @@
       <c r="M26" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -1750,8 +1862,11 @@
       <c r="M27" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -1788,8 +1903,11 @@
       <c r="M28" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -1826,8 +1944,11 @@
       <c r="M29" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1864,8 +1985,11 @@
       <c r="M30" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -1902,8 +2026,11 @@
       <c r="M31" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -1940,8 +2067,11 @@
       <c r="M32" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -1978,8 +2108,11 @@
       <c r="M33" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -2016,8 +2149,11 @@
       <c r="M34" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -2054,8 +2190,11 @@
       <c r="M35" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -2092,8 +2231,11 @@
       <c r="M36" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -2130,8 +2272,11 @@
       <c r="M37" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -2168,8 +2313,11 @@
       <c r="M38" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -2206,8 +2354,11 @@
       <c r="M39" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -2244,8 +2395,11 @@
       <c r="M40" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -2282,8 +2436,11 @@
       <c r="M41" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -2320,8 +2477,11 @@
       <c r="M42" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -2358,8 +2518,11 @@
       <c r="M43" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2396,8 +2559,11 @@
       <c r="M44" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -2434,8 +2600,11 @@
       <c r="M45" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -2472,8 +2641,11 @@
       <c r="M46" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -2510,8 +2682,11 @@
       <c r="M47" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -2548,8 +2723,11 @@
       <c r="M48" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -2586,8 +2764,11 @@
       <c r="M49" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -2624,8 +2805,11 @@
       <c r="M50" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -2662,8 +2846,11 @@
       <c r="M51" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -2700,8 +2887,11 @@
       <c r="M52" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -2738,8 +2928,11 @@
       <c r="M53" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -2776,8 +2969,11 @@
       <c r="M54" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -2814,8 +3010,11 @@
       <c r="M55" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -2852,8 +3051,11 @@
       <c r="M56" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -2890,8 +3092,11 @@
       <c r="M57" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="M58" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -2966,8 +3174,11 @@
       <c r="M59" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -3004,8 +3215,11 @@
       <c r="M60" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -3042,8 +3256,11 @@
       <c r="M61" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -3080,8 +3297,11 @@
       <c r="M62" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -3118,8 +3338,11 @@
       <c r="M63" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -3156,8 +3379,11 @@
       <c r="M64" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>87</v>
       </c>
@@ -3194,8 +3420,11 @@
       <c r="M65" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -3232,8 +3461,11 @@
       <c r="M66" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -3270,8 +3502,11 @@
       <c r="M67" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3543,11 @@
       <c r="M68" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -3346,8 +3584,11 @@
       <c r="M69" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -3384,8 +3625,11 @@
       <c r="M70" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -3422,8 +3666,11 @@
       <c r="M71" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -3460,8 +3707,11 @@
       <c r="M72" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -3498,8 +3748,11 @@
       <c r="M73" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -3536,8 +3789,11 @@
       <c r="M74" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -3574,8 +3830,11 @@
       <c r="M75" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -3612,8 +3871,11 @@
       <c r="M76" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -3650,8 +3912,11 @@
       <c r="M77" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -3688,8 +3953,11 @@
       <c r="M78" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -3726,8 +3994,11 @@
       <c r="M79" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -3764,8 +4035,11 @@
       <c r="M80" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3802,8 +4076,11 @@
       <c r="M81" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -3840,8 +4117,11 @@
       <c r="M82" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -3878,8 +4158,11 @@
       <c r="M83" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -3916,8 +4199,11 @@
       <c r="M84" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -3954,8 +4240,11 @@
       <c r="M85" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -3992,8 +4281,11 @@
       <c r="M86" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -4030,8 +4322,11 @@
       <c r="M87" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -4068,8 +4363,11 @@
       <c r="M88" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -4106,8 +4404,11 @@
       <c r="M89" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -4144,8 +4445,11 @@
       <c r="M90" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -4182,8 +4486,11 @@
       <c r="M91" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -4220,8 +4527,11 @@
       <c r="M92" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -4258,8 +4568,11 @@
       <c r="M93" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -4296,8 +4609,11 @@
       <c r="M94" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -4334,8 +4650,11 @@
       <c r="M95" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -4372,8 +4691,11 @@
       <c r="M96" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -4410,8 +4732,11 @@
       <c r="M97" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -4448,8 +4773,11 @@
       <c r="M98" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -4486,8 +4814,11 @@
       <c r="M99" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +4855,11 @@
       <c r="M100" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -4562,8 +4896,11 @@
       <c r="M101" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>88</v>
       </c>
@@ -4600,8 +4937,11 @@
       <c r="M102" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>88</v>
       </c>
@@ -4638,8 +4978,11 @@
       <c r="M103" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>88</v>
       </c>
@@ -4676,8 +5019,11 @@
       <c r="M104" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>88</v>
       </c>
@@ -4714,8 +5060,11 @@
       <c r="M105" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>88</v>
       </c>
@@ -4752,8 +5101,11 @@
       <c r="M106" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>88</v>
       </c>
@@ -4790,8 +5142,11 @@
       <c r="M107" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>88</v>
       </c>
@@ -4828,8 +5183,11 @@
       <c r="M108" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -4866,8 +5224,11 @@
       <c r="M109" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>88</v>
       </c>
@@ -4904,8 +5265,11 @@
       <c r="M110" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>88</v>
       </c>
@@ -4942,8 +5306,11 @@
       <c r="M111" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>88</v>
       </c>
@@ -4980,8 +5347,11 @@
       <c r="M112" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>88</v>
       </c>
@@ -5018,8 +5388,11 @@
       <c r="M113" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>88</v>
       </c>
@@ -5056,8 +5429,11 @@
       <c r="M114" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -5094,8 +5470,11 @@
       <c r="M115" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>88</v>
       </c>
@@ -5132,8 +5511,11 @@
       <c r="M116" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>88</v>
       </c>
@@ -5170,8 +5552,11 @@
       <c r="M117" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>88</v>
       </c>
@@ -5208,8 +5593,11 @@
       <c r="M118" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>88</v>
       </c>
@@ -5246,8 +5634,11 @@
       <c r="M119" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>88</v>
       </c>
@@ -5284,8 +5675,11 @@
       <c r="M120" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>88</v>
       </c>
@@ -5322,8 +5716,11 @@
       <c r="M121" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>88</v>
       </c>
@@ -5360,8 +5757,11 @@
       <c r="M122" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>88</v>
       </c>
@@ -5398,8 +5798,11 @@
       <c r="M123" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>88</v>
       </c>
@@ -5436,8 +5839,11 @@
       <c r="M124" s="1">
         <v>45367</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -5473,6 +5879,9 @@
       </c>
       <c r="M125" s="1">
         <v>45367</v>
+      </c>
+      <c r="N125" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Validation/validation_output/example_generated_platemap_manual_changes.xlsx
+++ b/Validation/validation_output/example_generated_platemap_manual_changes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Dropbox (Cambridge University)\NormaliseForIC50\Validation\validation_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F71C0C-1C9A-462A-83B5-37A75F75DC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD73F3E-3770-4F0F-A053-CFF00054F230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-4590" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="99">
   <si>
     <t>Plate_Name</t>
   </si>
@@ -77,9 +77,6 @@
     <t>example1</t>
   </si>
   <si>
-    <t>../Validation/2022-09-04 reads/example1.xlsx</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
@@ -113,57 +110,30 @@
     <t>example2</t>
   </si>
   <si>
-    <t>../Validation/2022-09-04 reads/example2.xlsx</t>
-  </si>
-  <si>
     <t>example3</t>
   </si>
   <si>
-    <t>../Validation/2022-09-04 reads/example3.xlsx</t>
-  </si>
-  <si>
     <t>example4</t>
   </si>
   <si>
-    <t>../Validation/2022-09-04 reads/example4.xlsx</t>
-  </si>
-  <si>
     <t>example5</t>
   </si>
   <si>
-    <t>../Validation/2022-09-04 reads/example5.xlsx</t>
-  </si>
-  <si>
     <t>example6</t>
   </si>
   <si>
-    <t>../Validation/2022-09-04 reads/example6.xlsx</t>
-  </si>
-  <si>
     <t>example7</t>
   </si>
   <si>
-    <t>../Validation/2022-09-04 reads/example7.xlsx</t>
-  </si>
-  <si>
     <t>example8</t>
   </si>
   <si>
-    <t>../Validation/2022-09-04 reads/example8.xlsx</t>
-  </si>
-  <si>
     <t>example9</t>
   </si>
   <si>
-    <t>../Validation/2022-09-04 reads/example9.xlsx</t>
-  </si>
-  <si>
     <t>example10</t>
   </si>
   <si>
-    <t>../Validation/2022-09-04 reads/example10.xlsx</t>
-  </si>
-  <si>
     <t>Inhib1_Inhib2_Vir1Vir2</t>
   </si>
   <si>
@@ -227,21 +197,6 @@
     <t>Camostat</t>
   </si>
   <si>
-    <t>VIrus2</t>
-  </si>
-  <si>
-    <t>VIrus3</t>
-  </si>
-  <si>
-    <t>VIrus4</t>
-  </si>
-  <si>
-    <t>VIrus5</t>
-  </si>
-  <si>
-    <t>VIrus6</t>
-  </si>
-  <si>
     <t>dilution</t>
   </si>
   <si>
@@ -333,6 +288,48 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>../Validation/2022-09-04_reads/example1.xlsx</t>
+  </si>
+  <si>
+    <t>../Validation/2022-09-04_reads/example2.xlsx</t>
+  </si>
+  <si>
+    <t>../Validation/2022-09-04_reads/example3.xlsx</t>
+  </si>
+  <si>
+    <t>../Validation/2022-09-04_reads/example4.xlsx</t>
+  </si>
+  <si>
+    <t>../Validation/2022-09-04_reads/example5.xlsx</t>
+  </si>
+  <si>
+    <t>../Validation/2022-09-04_reads/example6.xlsx</t>
+  </si>
+  <si>
+    <t>../Validation/2022-09-04_reads/example7.xlsx</t>
+  </si>
+  <si>
+    <t>../Validation/2022-09-04_reads/example8.xlsx</t>
+  </si>
+  <si>
+    <t>../Validation/2022-09-04_reads/example9.xlsx</t>
+  </si>
+  <si>
+    <t>../Validation/2022-09-04_reads/example10.xlsx</t>
+  </si>
+  <si>
+    <t>Virus3</t>
+  </si>
+  <si>
+    <t>Virus4</t>
+  </si>
+  <si>
+    <t>Virus5</t>
+  </si>
+  <si>
+    <t>Virus6</t>
   </si>
 </sst>
 </file>
@@ -745,9 +742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,12 +794,12 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -811,39 +808,39 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J2" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="M2" s="1">
         <v>44808</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -852,39 +849,39 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J3" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="M3" s="1">
         <v>44808</v>
       </c>
       <c r="N3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -893,39 +890,39 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J4" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="M4" s="1">
         <v>44808</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -934,39 +931,39 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="M5" s="1">
         <v>44808</v>
       </c>
       <c r="N5" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -975,39 +972,39 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J6" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="M6" s="1">
         <v>44808</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1016,39 +1013,39 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J7" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="M7" s="1">
         <v>44808</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1057,39 +1054,39 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J8" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="M8" s="1">
         <v>44808</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1098,39 +1095,39 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J9" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="M9" s="1">
         <v>44808</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1139,39 +1136,39 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J10" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="M10" s="1">
         <v>44808</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1180,39 +1177,39 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J11" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="M11" s="1">
         <v>44808</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1221,39 +1218,39 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J12" s="4">
         <v>20</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="M12" s="1">
         <v>44808</v>
       </c>
       <c r="N12" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1262,39 +1259,39 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J13" s="4">
         <v>20</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L13" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="M13" s="1">
         <v>44808</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1303,39 +1300,39 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J14" s="4">
         <v>20</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="M14" s="1">
         <v>44808</v>
       </c>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1344,39 +1341,39 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J15" s="4">
         <v>20</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L15" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="M15" s="1">
         <v>44808</v>
       </c>
       <c r="N15" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1385,39 +1382,39 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J16" s="4">
         <v>20</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="M16" s="1">
         <v>44808</v>
       </c>
       <c r="N16" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1426,39 +1423,39 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J17" s="4">
         <v>20</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L17" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="M17" s="1">
         <v>44808</v>
       </c>
       <c r="N17" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1467,39 +1464,39 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J18" s="4">
         <v>20</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L18" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="M18" s="1">
         <v>44808</v>
       </c>
       <c r="N18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1508,39 +1505,39 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J19" s="4">
         <v>20</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L19" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="M19" s="1">
         <v>44808</v>
       </c>
       <c r="N19" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1549,39 +1546,39 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J20" s="4">
         <v>20</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="M20" s="1">
         <v>44808</v>
       </c>
       <c r="N20" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1590,449 +1587,449 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J21" s="5">
         <v>20</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L21" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="M21" s="1">
         <v>44808</v>
       </c>
       <c r="N21" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="2">
+        <v>10</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" t="s">
         <v>87</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" s="2">
-        <v>20</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22" t="s">
-        <v>28</v>
-      </c>
       <c r="M22" s="1">
         <v>44808</v>
       </c>
       <c r="N22" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" t="s">
         <v>87</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" t="s">
-        <v>69</v>
-      </c>
-      <c r="J23" s="3">
-        <v>20</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" t="s">
-        <v>28</v>
-      </c>
       <c r="M23" s="1">
         <v>44808</v>
       </c>
       <c r="N23" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="3">
+        <v>10</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" t="s">
         <v>87</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" s="3">
-        <v>20</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24" t="s">
-        <v>28</v>
-      </c>
       <c r="M24" s="1">
         <v>44808</v>
       </c>
       <c r="N24" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="3">
+        <v>10</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" t="s">
         <v>87</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="3">
-        <v>20</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25" t="s">
-        <v>28</v>
-      </c>
       <c r="M25" s="1">
         <v>44808</v>
       </c>
       <c r="N25" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="3">
+        <v>10</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" t="s">
         <v>87</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" t="s">
-        <v>69</v>
-      </c>
-      <c r="J26" s="3">
-        <v>20</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" t="s">
-        <v>28</v>
-      </c>
       <c r="M26" s="1">
         <v>44808</v>
       </c>
       <c r="N26" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="3">
+        <v>10</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" t="s">
         <v>87</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" s="3">
-        <v>20</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27" t="s">
-        <v>28</v>
-      </c>
       <c r="M27" s="1">
         <v>44808</v>
       </c>
       <c r="N27" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="3">
+        <v>10</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" t="s">
         <v>87</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28" s="3">
-        <v>20</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L28" t="s">
-        <v>28</v>
-      </c>
       <c r="M28" s="1">
         <v>44808</v>
       </c>
       <c r="N28" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="3">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" t="s">
         <v>87</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="3">
-        <v>20</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29" t="s">
-        <v>28</v>
-      </c>
       <c r="M29" s="1">
         <v>44808</v>
       </c>
       <c r="N29" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="3">
+        <v>10</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" t="s">
         <v>87</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" t="s">
-        <v>69</v>
-      </c>
-      <c r="J30" s="3">
-        <v>20</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L30" t="s">
-        <v>28</v>
-      </c>
       <c r="M30" s="1">
         <v>44808</v>
       </c>
       <c r="N30" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="3">
+        <v>10</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" t="s">
         <v>87</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" s="3">
-        <v>20</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L31" t="s">
-        <v>28</v>
-      </c>
       <c r="M31" s="1">
         <v>44808</v>
       </c>
       <c r="N31" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2041,39 +2038,39 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J32" s="4">
         <v>20</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L32" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="M32" s="1">
         <v>44808</v>
       </c>
       <c r="N32" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2082,39 +2079,39 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J33" s="4">
         <v>20</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L33" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="M33" s="1">
         <v>44808</v>
       </c>
       <c r="N33" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2123,39 +2120,39 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J34" s="4">
         <v>20</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L34" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="M34" s="1">
         <v>44808</v>
       </c>
       <c r="N34" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2164,39 +2161,39 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J35" s="4">
         <v>20</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L35" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="M35" s="1">
         <v>44808</v>
       </c>
       <c r="N35" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2205,39 +2202,39 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J36" s="4">
         <v>20</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L36" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="M36" s="1">
         <v>44808</v>
       </c>
       <c r="N36" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2246,39 +2243,39 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J37" s="4">
         <v>20</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L37" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="M37" s="1">
         <v>44808</v>
       </c>
       <c r="N37" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2287,39 +2284,39 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J38" s="4">
         <v>20</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L38" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="M38" s="1">
         <v>44808</v>
       </c>
       <c r="N38" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2328,39 +2325,39 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J39" s="4">
         <v>20</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L39" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="M39" s="1">
         <v>44808</v>
       </c>
       <c r="N39" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2369,39 +2366,39 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I40" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J40" s="4">
         <v>20</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L40" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="M40" s="1">
         <v>44808</v>
       </c>
       <c r="N40" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2410,39 +2407,39 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J41" s="5">
         <v>20</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L41" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="M41" s="1">
         <v>44808</v>
       </c>
       <c r="N41" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2451,39 +2448,39 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J42" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L42" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="M42" s="1">
         <v>44808</v>
       </c>
       <c r="N42" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2492,39 +2489,39 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J43" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L43" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="M43" s="1">
         <v>44808</v>
       </c>
       <c r="N43" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2533,39 +2530,39 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J44" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L44" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="M44" s="1">
         <v>44808</v>
       </c>
       <c r="N44" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2574,39 +2571,39 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J45" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L45" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="M45" s="1">
         <v>44808</v>
       </c>
       <c r="N45" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2615,39 +2612,39 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J46" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L46" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="M46" s="1">
         <v>44808</v>
       </c>
       <c r="N46" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2656,39 +2653,39 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J47" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L47" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="M47" s="1">
         <v>44808</v>
       </c>
       <c r="N47" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2697,39 +2694,39 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J48" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L48" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="M48" s="1">
         <v>44808</v>
       </c>
       <c r="N48" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -2738,39 +2735,39 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J49" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L49" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="M49" s="1">
         <v>44808</v>
       </c>
       <c r="N49" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2779,39 +2776,39 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I50" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J50" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L50" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="M50" s="1">
         <v>44808</v>
       </c>
       <c r="N50" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2820,39 +2817,39 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I51" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J51" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L51" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="M51" s="1">
         <v>44808</v>
       </c>
       <c r="N51" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2861,39 +2858,39 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J52" s="4">
         <v>20</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M52" s="1">
         <v>44808</v>
       </c>
       <c r="N52" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -2902,39 +2899,39 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J53" s="4">
         <v>20</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L53" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M53" s="1">
         <v>44808</v>
       </c>
       <c r="N53" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -2943,39 +2940,39 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J54" s="4">
         <v>20</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L54" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M54" s="1">
         <v>44808</v>
       </c>
       <c r="N54" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2984,39 +2981,39 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s">
+        <v>54</v>
+      </c>
+      <c r="J55" s="4">
+        <v>20</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" t="s">
+        <v>90</v>
+      </c>
+      <c r="M55" s="1">
+        <v>44808</v>
+      </c>
+      <c r="N55" t="s">
         <v>78</v>
-      </c>
-      <c r="E55" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55" t="s">
-        <v>33</v>
-      </c>
-      <c r="H55" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" t="s">
-        <v>69</v>
-      </c>
-      <c r="J55" s="4">
-        <v>20</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L55" t="s">
-        <v>34</v>
-      </c>
-      <c r="M55" s="1">
-        <v>44808</v>
-      </c>
-      <c r="N55" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3025,39 +3022,39 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>54</v>
+      </c>
+      <c r="J56" s="4">
+        <v>20</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L56" t="s">
+        <v>90</v>
+      </c>
+      <c r="M56" s="1">
+        <v>44808</v>
+      </c>
+      <c r="N56" t="s">
         <v>79</v>
-      </c>
-      <c r="E56" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56" t="s">
-        <v>69</v>
-      </c>
-      <c r="J56" s="4">
-        <v>20</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L56" t="s">
-        <v>34</v>
-      </c>
-      <c r="M56" s="1">
-        <v>44808</v>
-      </c>
-      <c r="N56" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3066,39 +3063,39 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I57" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J57" s="4">
         <v>20</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L57" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M57" s="1">
         <v>44808</v>
       </c>
       <c r="N57" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3107,39 +3104,39 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J58" s="4">
         <v>20</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L58" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M58" s="1">
         <v>44808</v>
       </c>
       <c r="N58" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3148,39 +3145,39 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J59" s="4">
         <v>20</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L59" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M59" s="1">
         <v>44808</v>
       </c>
       <c r="N59" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3189,39 +3186,39 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I60" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J60" s="4">
         <v>20</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L60" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M60" s="1">
         <v>44808</v>
       </c>
       <c r="N60" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3230,39 +3227,39 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J61" s="5">
         <v>20</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L61" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M61" s="1">
         <v>44808</v>
       </c>
       <c r="N61" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -3271,39 +3268,39 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E62" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J62" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L62" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1">
         <v>44808</v>
       </c>
       <c r="N62" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -3312,39 +3309,39 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J63" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L63" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1">
         <v>44808</v>
       </c>
       <c r="N63" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3353,39 +3350,39 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I64" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J64" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L64" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M64" s="1">
         <v>44808</v>
       </c>
       <c r="N64" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3394,39 +3391,39 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I65" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J65" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L65" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M65" s="1">
         <v>44808</v>
       </c>
       <c r="N65" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -3435,39 +3432,39 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I66" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J66" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L66" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1">
         <v>44808</v>
       </c>
       <c r="N66" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3476,39 +3473,39 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I67" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J67" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L67" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M67" s="1">
         <v>44808</v>
       </c>
       <c r="N67" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3517,39 +3514,39 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E68" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J68" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L68" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M68" s="1">
         <v>44808</v>
       </c>
       <c r="N68" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3558,39 +3555,39 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I69" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J69" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L69" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M69" s="1">
         <v>44808</v>
       </c>
       <c r="N69" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -3599,39 +3596,39 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I70" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J70" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L70" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M70" s="1">
         <v>44808</v>
       </c>
       <c r="N70" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -3640,39 +3637,39 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I71" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J71" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L71" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M71" s="1">
         <v>44808</v>
       </c>
       <c r="N71" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3681,39 +3678,39 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J72" s="4">
         <v>20</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L72" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M72" s="1">
         <v>44808</v>
       </c>
       <c r="N72" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -3722,39 +3719,39 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E73" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J73" s="4">
         <v>20</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L73" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M73" s="1">
         <v>44808</v>
       </c>
       <c r="N73" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3763,39 +3760,39 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E74" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I74" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J74" s="4">
         <v>20</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L74" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M74" s="1">
         <v>44808</v>
       </c>
       <c r="N74" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -3804,39 +3801,39 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E75" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I75" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J75" s="4">
         <v>20</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L75" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M75" s="1">
         <v>44808</v>
       </c>
       <c r="N75" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -3845,39 +3842,39 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E76" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I76" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J76" s="4">
         <v>20</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L76" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M76" s="1">
         <v>44808</v>
       </c>
       <c r="N76" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -3886,39 +3883,39 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I77" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J77" s="4">
         <v>20</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L77" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M77" s="1">
         <v>44808</v>
       </c>
       <c r="N77" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -3927,39 +3924,39 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J78" s="4">
         <v>20</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L78" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M78" s="1">
         <v>44808</v>
       </c>
       <c r="N78" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -3968,39 +3965,39 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I79" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J79" s="4">
         <v>20</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L79" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M79" s="1">
         <v>44808</v>
       </c>
       <c r="N79" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4009,39 +4006,39 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E80" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I80" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J80" s="4">
         <v>20</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L80" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M80" s="1">
         <v>44808</v>
       </c>
       <c r="N80" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4050,39 +4047,39 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I81" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J81" s="5">
         <v>20</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L81" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M81" s="1">
         <v>44808</v>
       </c>
       <c r="N81" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -4091,39 +4088,39 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E82" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I82" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J82" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L82" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="M82" s="1">
         <v>44808</v>
       </c>
       <c r="N82" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -4132,39 +4129,39 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E83" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J83" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L83" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="M83" s="1">
         <v>44808</v>
       </c>
       <c r="N83" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -4173,39 +4170,39 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E84" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I84" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J84" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L84" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="M84" s="1">
         <v>44808</v>
       </c>
       <c r="N84" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4214,39 +4211,39 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
+        <v>63</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" t="s">
+        <v>54</v>
+      </c>
+      <c r="J85" s="3">
+        <v>10</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L85" t="s">
+        <v>93</v>
+      </c>
+      <c r="M85" s="1">
+        <v>44808</v>
+      </c>
+      <c r="N85" t="s">
         <v>78</v>
-      </c>
-      <c r="E85" t="s">
-        <v>54</v>
-      </c>
-      <c r="G85" t="s">
-        <v>39</v>
-      </c>
-      <c r="H85" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" t="s">
-        <v>69</v>
-      </c>
-      <c r="J85" s="3">
-        <v>20</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L85" t="s">
-        <v>40</v>
-      </c>
-      <c r="M85" s="1">
-        <v>44808</v>
-      </c>
-      <c r="N85" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4255,39 +4252,39 @@
         <v>2</v>
       </c>
       <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="G86" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>54</v>
+      </c>
+      <c r="J86" s="3">
+        <v>10</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L86" t="s">
+        <v>93</v>
+      </c>
+      <c r="M86" s="1">
+        <v>44808</v>
+      </c>
+      <c r="N86" t="s">
         <v>79</v>
-      </c>
-      <c r="E86" t="s">
-        <v>54</v>
-      </c>
-      <c r="G86" t="s">
-        <v>39</v>
-      </c>
-      <c r="H86" t="s">
-        <v>19</v>
-      </c>
-      <c r="I86" t="s">
-        <v>69</v>
-      </c>
-      <c r="J86" s="3">
-        <v>20</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L86" t="s">
-        <v>40</v>
-      </c>
-      <c r="M86" s="1">
-        <v>44808</v>
-      </c>
-      <c r="N86" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4296,39 +4293,39 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E87" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I87" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J87" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L87" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="M87" s="1">
         <v>44808</v>
       </c>
       <c r="N87" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4337,39 +4334,39 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E88" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I88" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J88" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L88" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="M88" s="1">
         <v>44808</v>
       </c>
       <c r="N88" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -4378,39 +4375,39 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E89" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I89" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J89" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L89" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="M89" s="1">
         <v>44808</v>
       </c>
       <c r="N89" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4419,39 +4416,39 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E90" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I90" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J90" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L90" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="M90" s="1">
         <v>44808</v>
       </c>
       <c r="N90" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -4460,39 +4457,39 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E91" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I91" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J91" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L91" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="M91" s="1">
         <v>44808</v>
       </c>
       <c r="N91" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -4501,39 +4498,39 @@
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E92" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I92" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J92" s="4">
         <v>20</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L92" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="M92" s="1">
         <v>44808</v>
       </c>
       <c r="N92" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -4542,39 +4539,39 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E93" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J93" s="4">
         <v>20</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L93" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="M93" s="1">
         <v>44808</v>
       </c>
       <c r="N93" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4583,39 +4580,39 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E94" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I94" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J94" s="4">
         <v>20</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L94" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="M94" s="1">
         <v>44808</v>
       </c>
       <c r="N94" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4624,39 +4621,39 @@
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E95" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I95" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J95" s="4">
         <v>20</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L95" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="M95" s="1">
         <v>44808</v>
       </c>
       <c r="N95" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -4665,39 +4662,39 @@
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E96" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I96" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J96" s="4">
         <v>20</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L96" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="M96" s="1">
         <v>44808</v>
       </c>
       <c r="N96" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4706,39 +4703,39 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E97" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I97" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J97" s="4">
         <v>20</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L97" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="M97" s="1">
         <v>44808</v>
       </c>
       <c r="N97" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4747,39 +4744,39 @@
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E98" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J98" s="4">
         <v>20</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L98" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="M98" s="1">
         <v>44808</v>
       </c>
       <c r="N98" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4788,39 +4785,39 @@
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E99" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I99" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J99" s="4">
         <v>20</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L99" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="M99" s="1">
         <v>44808</v>
       </c>
       <c r="N99" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4829,39 +4826,39 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E100" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I100" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J100" s="4">
         <v>20</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L100" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="M100" s="1">
         <v>44808</v>
       </c>
       <c r="N100" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -4870,39 +4867,39 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E101" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I101" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J101" s="5">
         <v>20</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L101" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="M101" s="1">
         <v>44808</v>
       </c>
       <c r="N101" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4911,39 +4908,39 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E102" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J102" s="4">
         <v>50</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L102" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M102" s="1">
         <v>45367</v>
       </c>
       <c r="N102" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4952,39 +4949,39 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E103" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J103" s="4">
         <v>50</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L103" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M103" s="1">
         <v>45367</v>
       </c>
       <c r="N103" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4993,39 +4990,39 @@
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E104" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I104" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J104" s="4">
         <v>50</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L104" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M104" s="1">
         <v>45367</v>
       </c>
       <c r="N104" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -5034,39 +5031,39 @@
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I105" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J105" s="4">
         <v>50</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L105" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M105" s="1">
         <v>45367</v>
       </c>
       <c r="N105" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B106">
         <v>7</v>
@@ -5075,39 +5072,39 @@
         <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E106" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I106" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J106" s="4">
         <v>50</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L106" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M106" s="1">
         <v>45367</v>
       </c>
       <c r="N106" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B107">
         <v>7</v>
@@ -5116,39 +5113,39 @@
         <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E107" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I107" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J107" s="4">
         <v>50</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L107" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M107" s="1">
         <v>45367</v>
       </c>
       <c r="N107" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B108">
         <v>7</v>
@@ -5157,39 +5154,39 @@
         <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E108" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G108" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I108" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J108" s="4">
         <v>50</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L108" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M108" s="1">
         <v>45367</v>
       </c>
       <c r="N108" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B109">
         <v>7</v>
@@ -5198,39 +5195,39 @@
         <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E109" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G109" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I109" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J109" s="4">
         <v>50</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L109" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M109" s="1">
         <v>45367</v>
       </c>
       <c r="N109" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -5239,39 +5236,39 @@
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E110" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I110" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J110" s="4">
         <v>50</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L110" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M110" s="1">
         <v>45367</v>
       </c>
       <c r="N110" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -5280,39 +5277,39 @@
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E111" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J111" s="4">
         <v>50</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L111" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M111" s="1">
         <v>45367</v>
       </c>
       <c r="N111" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -5321,39 +5318,39 @@
         <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E112" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="G112" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I112" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J112" s="4">
         <v>50</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L112" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M112" s="1">
         <v>45367</v>
       </c>
       <c r="N112" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -5362,39 +5359,39 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E113" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="G113" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I113" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J113" s="4">
         <v>50</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L113" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M113" s="1">
         <v>45367</v>
       </c>
       <c r="N113" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B114">
         <v>7</v>
@@ -5403,39 +5400,39 @@
         <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E114" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="G114" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I114" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J114" s="4">
         <v>50</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L114" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M114" s="1">
         <v>45367</v>
       </c>
       <c r="N114" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B115">
         <v>7</v>
@@ -5444,39 +5441,39 @@
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E115" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="G115" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I115" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J115" s="4">
         <v>50</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L115" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M115" s="1">
         <v>45367</v>
       </c>
       <c r="N115" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B116">
         <v>7</v>
@@ -5485,39 +5482,39 @@
         <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E116" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="G116" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I116" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J116" s="4">
         <v>50</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L116" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M116" s="1">
         <v>45367</v>
       </c>
       <c r="N116" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -5526,39 +5523,39 @@
         <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E117" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="G117" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I117" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J117" s="4">
         <v>50</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L117" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M117" s="1">
         <v>45367</v>
       </c>
       <c r="N117" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -5567,39 +5564,39 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E118" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="G118" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I118" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J118" s="4">
         <v>50</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L118" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M118" s="1">
         <v>45367</v>
       </c>
       <c r="N118" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -5608,39 +5605,39 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E119" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="G119" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J119" s="4">
         <v>50</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L119" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M119" s="1">
         <v>45367</v>
       </c>
       <c r="N119" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -5649,39 +5646,39 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E120" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="G120" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I120" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J120" s="4">
         <v>50</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L120" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M120" s="1">
         <v>45367</v>
       </c>
       <c r="N120" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -5690,39 +5687,39 @@
         <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E121" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="G121" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I121" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J121" s="4">
         <v>50</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L121" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M121" s="1">
         <v>45367</v>
       </c>
       <c r="N121" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B122">
         <v>7</v>
@@ -5731,39 +5728,39 @@
         <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E122" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G122" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I122" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J122" s="4">
         <v>50</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L122" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M122" s="1">
         <v>45367</v>
       </c>
       <c r="N122" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B123">
         <v>7</v>
@@ -5772,39 +5769,39 @@
         <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E123" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G123" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I123" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J123" s="4">
         <v>50</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L123" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M123" s="1">
         <v>45367</v>
       </c>
       <c r="N123" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B124">
         <v>7</v>
@@ -5813,39 +5810,39 @@
         <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E124" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G124" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I124" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J124" s="4">
         <v>50</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L124" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M124" s="1">
         <v>45367</v>
       </c>
       <c r="N124" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B125">
         <v>7</v>
@@ -5854,34 +5851,34 @@
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E125" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G125" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I125" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J125" s="4">
         <v>50</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L125" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M125" s="1">
         <v>45367</v>
       </c>
       <c r="N125" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
